--- a/TESTCASE.xlsx
+++ b/TESTCASE.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bharat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bharat\Desktop\TOPS DOCUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB258802-716E-4C43-822C-4B66446E6797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A53A38A-109D-4352-9DED-B9A3C966D0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9839267D-5415-4D26-91AE-83F886276C40}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{9839267D-5415-4D26-91AE-83F886276C40}"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
     <sheet name="Test Case" sheetId="2" r:id="rId2"/>
+    <sheet name="TEST SCENARIO" sheetId="3" r:id="rId3"/>
+    <sheet name="TEST DEFECT" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Case'!$A$1:$I$191</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="664">
   <si>
     <t>FUNCTIONAL ID</t>
   </si>
@@ -2635,12 +2640,202 @@
   <si>
     <t>it is show presta shop website</t>
   </si>
+  <si>
+    <t>DEFECT SUMMARY</t>
+  </si>
+  <si>
+    <t>DEFECT ID</t>
+  </si>
+  <si>
+    <t>REPRODUCED STEP</t>
+  </si>
+  <si>
+    <t>TEST DATA</t>
+  </si>
+  <si>
+    <t>DEFECT TYPES</t>
+  </si>
+  <si>
+    <t>DEFECT SEVERITY</t>
+  </si>
+  <si>
+    <t>DEFECT PRIORITY</t>
+  </si>
+  <si>
+    <t>TESTER NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTACHMENT </t>
+  </si>
+  <si>
+    <t>RAJ BATAVIYA</t>
+  </si>
+  <si>
+    <t>functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medium </t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high </t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TZWaUzjbhGdHg0um7vPUUovDUXdtFwLS/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1s15X0oZX4HD_7crre0bV85A2tAyzfkTm/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xI6TYVAtGPLiWdu4PQDWE7INKqEk8ri2/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ektObjVSxQjrTddgHDdUVbouMW0MbEJI/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TvU-75PNcZLHyKzI5DtTNmMIQdlq1uNm/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yDF2gu1qZZPhSVYPsZZDrB3Zp5Rlc6xJ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JsFi5cHfZi5SGkYemB5HPDG0rn7SYFBy/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1X0jvbIVWyKr4jm--wi_Jr26jmc0v07FD/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Kgm2F9jTG9gxKPpeUMpe_WgnE6H73Lbr/view?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+email:rajbguyewgfuygeufgurfgugfugefguregfufgjfhjrfgrefgruehgrfgugrgfhgfhfgeghfguegufgurfhdgfuhrgfhfghrfg@gmail.com</t>
+  </si>
+  <si>
+    <t>not show proper validation message.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1COZsPrHkEXPd9RLmZ2J7jcn1gYX4ZfSk/view?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YoFNR3X4tpSbgmrVgCQ_zhLXhEZH_nPo/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>check send button with order refrence giving dots between alphabat &amp; digits</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zX-H9n7g_vvqivmQ7K5RpFTKuC69cOwe/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1npjIwThO8vLT9MZkIrmUWbMYoYEuBfcp/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YHmjBuQqolKkYzPgslbtmpuANkb9R7zw/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EDIVMx4-JcUoBXXvEq8Srmo2gp5Stnyu/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/107tw1RadOo1cvmhDKN93rTKJXji_VQbA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jPjJvK_QcHJkxHmq0kLUYZHzaH31hX2z/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_xZOJZ_5UZueGHXQDRff-7S0lrWcOfuU/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1q6_UThd2_GJDDPeSetv5kDzvSjG2Rpkk/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AHUfpV7Nrp5WQdG4TGzuC7nH4XIMasnz/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gYRxtHqDjr0Ymr8UDNg5xKGEfa5yeDd8/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yiwQKK4i1ff0FA_Q0RqzdzZesHVg9SOK/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1omD18vHgHG1HXkty2J-ftQPsxCl46X2U/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pUyBpHvhatfQ50Vcb4slXqHS3mCDggch/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/122wUM0eUQc5FajZ91Wg8WdkQJJKkjxt3/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TAVgGBGHWW9We6Ux___xKW9SzjXd_ga4/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1g4U965i9M7FtPFEys4Ip98ERm627yDOg/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NzZbaOXm_nT95rp0W9Rwx4Jmi25rH9Vb/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1esuF0X44gZ6lcfvENc3r6CfBqCKFJDb2/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1O6Fp15uIfvP1KtswylD-es7c9vKXrgTp/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PlR9MCZUJpjffek-_5d_KNuayMJC8ZFO/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lDAMJKiE2styruO5_8NF327rOE_ekpKx/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18RYsHc-TgWvmMbu564GSj1gXucRHsJTO/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15RBYqeDbxbtnR8XHPNtRluGM_YoToDGC/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hzh2o5bKryw3ZR4mZYMx5MrLs2YyLoFt/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1e1hEVlwsl_wmFmIpCc2qvHW8hypXC4E-/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1c2oXYE15pQS0zZ18tqtXp96T6Bn9SOsr/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zGL7aFwYacok6CJDRIHWVBq1FAzJpsqZ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1S0fwGTisGBxu3d3Y5KbnXiTeLkUpG6--/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ToEkdnL4eXPHlO83_yvhphBPdmfv1jbS/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JKMOPC1bTnOPhwwKdNEWWIWvJhjthohT/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2701,6 +2896,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2710,7 +2928,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2744,11 +2962,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -2794,12 +3026,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4687,10 +4943,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F67572-9F17-46BE-A2E0-CD178145E5F5}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="E189" sqref="E189"/>
+    <sheetView topLeftCell="A19" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4734,7 +4991,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -4792,7 +5049,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="112.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4821,7 +5078,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="93.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -4937,7 +5194,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="93.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4999,32 +5256,32 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>102</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="H11" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="93.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5060,26 +5317,26 @@
       <c r="B13" s="3">
         <v>102</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>230</v>
+      <c r="H13" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
@@ -5111,7 +5368,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="93.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -5169,7 +5426,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="93.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -5260,29 +5517,29 @@
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>102</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>230</v>
+      <c r="H20" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
@@ -5318,29 +5575,29 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>102</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>230</v>
+      <c r="H22" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
@@ -5459,7 +5716,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="93.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -5488,7 +5745,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="93.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -5517,7 +5774,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="93.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -5575,7 +5832,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="93.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -5604,7 +5861,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="93.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -5633,7 +5890,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="93.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -5662,7 +5919,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="93.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -5807,7 +6064,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="112.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -5836,7 +6093,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="112.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -5865,7 +6122,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -5894,7 +6151,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="356.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="356.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -5921,7 +6178,7 @@
       </c>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="337.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="337.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -5950,7 +6207,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="375" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="375" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -5979,7 +6236,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="375" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="375" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -6240,7 +6497,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="375" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="375" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -6385,7 +6642,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="393.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="393.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -6414,7 +6671,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="393.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="393.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -6443,7 +6700,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="393.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="393.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -6472,7 +6729,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="168.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -6501,7 +6758,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -6530,7 +6787,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="187.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -6559,7 +6816,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="150" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -6588,7 +6845,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="168.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -6617,7 +6874,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="150" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -6647,7 +6904,7 @@
       </c>
       <c r="J67" s="12"/>
     </row>
-    <row r="68" spans="1:10" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="187.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -6676,7 +6933,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="187.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -6705,7 +6962,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="187.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -6734,7 +6991,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="187.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -6763,7 +7020,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="356.25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="356.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -6792,7 +7049,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="56.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -6809,7 +7066,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:10" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="206.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <v>73</v>
       </c>
@@ -6838,7 +7095,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="168.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -6867,7 +7124,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="75" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -6881,7 +7138,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="1:10" ht="225" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>76</v>
       </c>
@@ -6910,7 +7167,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="187.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -6939,7 +7196,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="206.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -7055,7 +7312,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="225" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
         <v>82</v>
       </c>
@@ -7084,7 +7341,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="243.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -7113,7 +7370,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="243.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -7142,7 +7399,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11">
         <v>85</v>
       </c>
@@ -7159,7 +7416,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="1:9" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="187.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -7188,7 +7445,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -7211,7 +7468,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="225" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11">
         <v>88</v>
       </c>
@@ -7269,7 +7526,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="131.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -7298,7 +7555,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="168.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
         <v>91</v>
       </c>
@@ -7356,7 +7613,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="168.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -7385,7 +7642,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="187.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
         <v>94</v>
       </c>
@@ -7414,7 +7671,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="225" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -7443,7 +7700,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="206.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -7559,7 +7816,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="206.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="11">
         <v>100</v>
       </c>
@@ -7588,7 +7845,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="206.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -7617,7 +7874,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="206.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -7646,7 +7903,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="225" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
         <v>103</v>
       </c>
@@ -7675,7 +7932,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="262.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="262.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -7704,7 +7961,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="262.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="262.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -7733,7 +7990,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="300" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="300" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="11">
         <v>106</v>
       </c>
@@ -7762,7 +8019,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="300" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="300" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -7791,7 +8048,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -7808,7 +8065,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
     </row>
-    <row r="110" spans="1:9" ht="300" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="300" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
         <v>109</v>
       </c>
@@ -7837,7 +8094,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="300" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="300" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -7866,7 +8123,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="300" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="300" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -7895,7 +8152,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="337.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="337.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="11">
         <v>112</v>
       </c>
@@ -7924,7 +8181,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -7953,7 +8210,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3">
         <v>1209</v>
@@ -7980,7 +8237,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>114</v>
       </c>
@@ -8009,7 +8266,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11">
         <v>115</v>
       </c>
@@ -8038,7 +8295,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>116</v>
       </c>
@@ -8055,7 +8312,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
-    <row r="119" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>117</v>
       </c>
@@ -8072,7 +8329,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
     </row>
-    <row r="120" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
         <v>118</v>
       </c>
@@ -8101,7 +8358,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>119</v>
       </c>
@@ -8118,7 +8375,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
     </row>
-    <row r="122" spans="1:9" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="168.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>120</v>
       </c>
@@ -8147,7 +8404,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="187.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="11">
         <v>121</v>
       </c>
@@ -8176,7 +8433,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="206.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>122</v>
       </c>
@@ -8205,7 +8462,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="187.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>123</v>
       </c>
@@ -8234,7 +8491,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="225" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="11">
         <v>124</v>
       </c>
@@ -8350,7 +8607,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="206.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>128</v>
       </c>
@@ -8379,7 +8636,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="206.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>129</v>
       </c>
@@ -8408,7 +8665,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="206.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="15">
         <v>130</v>
       </c>
@@ -8437,7 +8694,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="225" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>131</v>
       </c>
@@ -8466,7 +8723,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="243.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>132</v>
       </c>
@@ -8495,7 +8752,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="281.25" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="281.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="15">
         <v>133</v>
       </c>
@@ -8524,7 +8781,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="318.75" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="318.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>134</v>
       </c>
@@ -8553,7 +8810,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="318.75" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="318.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>135</v>
       </c>
@@ -8582,7 +8839,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="15">
         <v>136</v>
       </c>
@@ -8599,7 +8856,7 @@
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
     </row>
-    <row r="139" spans="1:9" ht="318.75" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="318.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>137</v>
       </c>
@@ -8628,7 +8885,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="356.25" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="356.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>138</v>
       </c>
@@ -8657,7 +8914,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="393.75" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="393.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="15">
         <v>139</v>
       </c>
@@ -8686,7 +8943,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>140</v>
       </c>
@@ -8715,7 +8972,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>141</v>
       </c>
@@ -8744,7 +9001,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="15">
         <v>142</v>
       </c>
@@ -8773,7 +9030,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>143</v>
       </c>
@@ -8802,7 +9059,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>144</v>
       </c>
@@ -8831,7 +9088,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="15">
         <v>145</v>
       </c>
@@ -8848,7 +9105,7 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
     </row>
-    <row r="148" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>146</v>
       </c>
@@ -8865,7 +9122,7 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
     </row>
-    <row r="149" spans="1:9" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="206.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>147</v>
       </c>
@@ -8894,7 +9151,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="15">
         <v>148</v>
       </c>
@@ -8911,7 +9168,7 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
     </row>
-    <row r="151" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>149</v>
       </c>
@@ -8940,7 +9197,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="187.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>150</v>
       </c>
@@ -8969,7 +9226,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="15">
         <v>151</v>
       </c>
@@ -8986,7 +9243,7 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
     </row>
-    <row r="154" spans="1:9" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="187.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>152</v>
       </c>
@@ -9015,7 +9272,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>153</v>
       </c>
@@ -9032,7 +9289,7 @@
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
     </row>
-    <row r="156" spans="1:9" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="187.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="15">
         <v>154</v>
       </c>
@@ -9061,7 +9318,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>155</v>
       </c>
@@ -9078,7 +9335,7 @@
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
     </row>
-    <row r="158" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>156</v>
       </c>
@@ -9095,7 +9352,7 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
     </row>
-    <row r="159" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="15">
         <v>157</v>
       </c>
@@ -9124,7 +9381,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>158</v>
       </c>
@@ -9141,7 +9398,7 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
     </row>
-    <row r="161" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="13">
         <v>159</v>
       </c>
@@ -9158,7 +9415,7 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
     </row>
-    <row r="162" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="15">
         <v>160</v>
       </c>
@@ -9187,7 +9444,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>161</v>
       </c>
@@ -9216,7 +9473,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="13">
         <v>162</v>
       </c>
@@ -9245,7 +9502,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="15">
         <v>163</v>
       </c>
@@ -9274,7 +9531,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>164</v>
       </c>
@@ -9293,7 +9550,7 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
     </row>
-    <row r="167" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="13">
         <v>165</v>
       </c>
@@ -9322,7 +9579,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="15">
         <v>166</v>
       </c>
@@ -9351,7 +9608,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>167</v>
       </c>
@@ -9380,7 +9637,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>168</v>
       </c>
@@ -9409,7 +9666,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="15">
         <v>169</v>
       </c>
@@ -9430,7 +9687,7 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
     </row>
-    <row r="172" spans="1:9" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="168.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>170</v>
       </c>
@@ -9459,7 +9716,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>171</v>
       </c>
@@ -9488,7 +9745,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="15">
         <v>172</v>
       </c>
@@ -9517,7 +9774,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>173</v>
       </c>
@@ -9546,7 +9803,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>174</v>
       </c>
@@ -9565,7 +9822,7 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
     </row>
-    <row r="177" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="15">
         <v>175</v>
       </c>
@@ -9623,7 +9880,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="168.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>177</v>
       </c>
@@ -9652,7 +9909,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="187.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="15">
         <v>178</v>
       </c>
@@ -9681,7 +9938,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="187.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>179</v>
       </c>
@@ -9710,7 +9967,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>180</v>
       </c>
@@ -9729,7 +9986,7 @@
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
     </row>
-    <row r="183" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="15">
         <v>181</v>
       </c>
@@ -9748,7 +10005,7 @@
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
     </row>
-    <row r="184" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>182</v>
       </c>
@@ -9767,7 +10024,7 @@
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
     </row>
-    <row r="185" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>183</v>
       </c>
@@ -9786,7 +10043,7 @@
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
     </row>
-    <row r="186" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="15">
         <v>184</v>
       </c>
@@ -9805,7 +10062,7 @@
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
     </row>
-    <row r="187" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>185</v>
       </c>
@@ -9824,7 +10081,7 @@
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
     </row>
-    <row r="188" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>186</v>
       </c>
@@ -9843,7 +10100,7 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
     </row>
-    <row r="189" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="15">
         <v>187</v>
       </c>
@@ -9872,7 +10129,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>188</v>
       </c>
@@ -9901,7 +10158,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="168.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="13">
         <v>189</v>
       </c>
@@ -9941,8 +10198,5238 @@
       <c r="I192" s="16"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I191" xr:uid="{A0F67572-9F17-46BE-A2E0-CD178145E5F5}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Fail"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354D454B-7FE0-45E4-8B41-A92978E924A8}">
+  <dimension ref="A1:J119"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>100</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>101</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>102</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="168.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="3">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="3">
+        <v>102</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>102</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="3">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="3">
+        <v>102</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
+        <v>102</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <v>102</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3">
+        <v>102</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <v>102</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <v>102</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3">
+        <v>102</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>102</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3">
+        <v>200</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>200</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3">
+        <v>200</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="356.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
+        <v>200</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="337.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3">
+        <v>200</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="375" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3">
+        <v>200</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="375" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>22</v>
+      </c>
+      <c r="B26" s="3">
+        <v>200</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="375" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>23</v>
+      </c>
+      <c r="B27" s="3">
+        <v>200</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="393.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>24</v>
+      </c>
+      <c r="B28" s="3">
+        <v>200</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="393.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3">
+        <v>200</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="393.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>26</v>
+      </c>
+      <c r="B30" s="3">
+        <v>200</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="168.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>27</v>
+      </c>
+      <c r="B31" s="3">
+        <v>200</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>28</v>
+      </c>
+      <c r="B32" s="3">
+        <v>300</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>29</v>
+      </c>
+      <c r="B33" s="3">
+        <v>301</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="150" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3">
+        <v>400</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="168.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>31</v>
+      </c>
+      <c r="B35" s="3">
+        <v>401</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="150" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>32</v>
+      </c>
+      <c r="B36" s="3">
+        <v>500</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>33</v>
+      </c>
+      <c r="B37" s="3">
+        <v>501</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3">
+        <v>502</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>35</v>
+      </c>
+      <c r="B39" s="3">
+        <v>503</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
+        <v>36</v>
+      </c>
+      <c r="B40" s="3">
+        <v>504</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="356.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
+        <v>37</v>
+      </c>
+      <c r="B41" s="3">
+        <v>505</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>38</v>
+      </c>
+      <c r="B42" s="3">
+        <v>506</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="11">
+        <v>39</v>
+      </c>
+      <c r="B43" s="3">
+        <v>506</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="168.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>40</v>
+      </c>
+      <c r="B44" s="3">
+        <v>600</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="75" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>41</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" ht="225" x14ac:dyDescent="0.3">
+      <c r="A46" s="11">
+        <v>42</v>
+      </c>
+      <c r="B46" s="3">
+        <v>601</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>43</v>
+      </c>
+      <c r="B47" s="3">
+        <v>700</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>44</v>
+      </c>
+      <c r="B48" s="3">
+        <v>701</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="225" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
+        <v>45</v>
+      </c>
+      <c r="B49" s="3">
+        <v>702</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="243.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
+        <v>46</v>
+      </c>
+      <c r="B50" s="3">
+        <v>703</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="243.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>47</v>
+      </c>
+      <c r="B51" s="3">
+        <v>704</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="11">
+        <v>48</v>
+      </c>
+      <c r="B52" s="3">
+        <v>705</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="11">
+        <v>49</v>
+      </c>
+      <c r="B53" s="3">
+        <v>800</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>50</v>
+      </c>
+      <c r="B54" s="3">
+        <v>801</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="225" x14ac:dyDescent="0.3">
+      <c r="A55" s="11">
+        <v>51</v>
+      </c>
+      <c r="B55" s="3">
+        <v>802</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="131.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="11">
+        <v>52</v>
+      </c>
+      <c r="B56" s="3">
+        <v>901</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="168.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>53</v>
+      </c>
+      <c r="B57" s="3">
+        <v>902</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="A58" s="11">
+        <v>54</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1310</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="A59" s="11">
+        <v>55</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1311</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>56</v>
+      </c>
+      <c r="B60" s="15">
+        <v>1312</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="225" x14ac:dyDescent="0.3">
+      <c r="A61" s="11">
+        <v>57</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1313</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="243.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="11">
+        <v>58</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1314</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="281.25" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>59</v>
+      </c>
+      <c r="B63" s="15">
+        <v>1315</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="318.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="11">
+        <v>60</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1316</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="318.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="11">
+        <v>61</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1317</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>62</v>
+      </c>
+      <c r="B66" s="15">
+        <v>1318</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:9" ht="318.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="11">
+        <v>63</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1319</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="356.25" x14ac:dyDescent="0.3">
+      <c r="A68" s="11">
+        <v>64</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1320</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="393.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>65</v>
+      </c>
+      <c r="B69" s="15">
+        <v>1321</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="11">
+        <v>66</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1322</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="11">
+        <v>67</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1323</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>68</v>
+      </c>
+      <c r="B72" s="15">
+        <v>1324</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="11">
+        <v>69</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1325</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="11">
+        <v>70</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1326</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>71</v>
+      </c>
+      <c r="B75" s="15">
+        <v>1327</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="11">
+        <v>72</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1328</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="A77" s="11">
+        <v>73</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1329</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>74</v>
+      </c>
+      <c r="B78" s="15">
+        <v>1330</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+      <c r="A79" s="11">
+        <v>75</v>
+      </c>
+      <c r="B79" s="3">
+        <v>1400</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="11">
+        <v>76</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1401</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>77</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1402</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="11">
+        <v>78</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1403</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="11">
+        <v>79</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1404</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>80</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1405</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="11">
+        <v>81</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1406</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A86" s="11">
+        <v>82</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1407</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>83</v>
+      </c>
+      <c r="B87" s="15">
+        <v>1500</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A88" s="11">
+        <v>84</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1501</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A89" s="11">
+        <v>85</v>
+      </c>
+      <c r="B89" s="13">
+        <v>1502</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>86</v>
+      </c>
+      <c r="B90" s="13">
+        <v>1600</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+      <c r="A91" s="11">
+        <v>87</v>
+      </c>
+      <c r="B91" s="13">
+        <v>1700</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+      <c r="A92" s="11">
+        <v>88</v>
+      </c>
+      <c r="B92" s="13">
+        <v>1800</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>89</v>
+      </c>
+      <c r="B93" s="13">
+        <v>1900</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A94" s="11">
+        <v>90</v>
+      </c>
+      <c r="B94" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+      <c r="A95" s="11">
+        <v>91</v>
+      </c>
+      <c r="B95" s="13">
+        <v>2100</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>92</v>
+      </c>
+      <c r="B96" s="13">
+        <v>2101</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+      <c r="A97" s="11">
+        <v>93</v>
+      </c>
+      <c r="B97" s="13">
+        <v>2102</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+      <c r="A98" s="11">
+        <v>94</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2103</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>95</v>
+      </c>
+      <c r="B99" s="3">
+        <v>2104</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="1:9" ht="168.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="11">
+        <v>96</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2105</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+      <c r="A101" s="11">
+        <v>97</v>
+      </c>
+      <c r="B101" s="3">
+        <v>2106</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>98</v>
+      </c>
+      <c r="B102" s="3">
+        <v>2107</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+      <c r="A103" s="11">
+        <v>99</v>
+      </c>
+      <c r="B103" s="3">
+        <v>2200</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A104" s="11">
+        <v>100</v>
+      </c>
+      <c r="B104" s="3">
+        <v>2200</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+    </row>
+    <row r="105" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>101</v>
+      </c>
+      <c r="B105" s="15">
+        <v>2200</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="168.75" x14ac:dyDescent="0.3">
+      <c r="A106" s="11">
+        <v>102</v>
+      </c>
+      <c r="B106" s="3">
+        <v>2200</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A107" s="11">
+        <v>103</v>
+      </c>
+      <c r="B107" s="3">
+        <v>2200</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>104</v>
+      </c>
+      <c r="B108" s="3">
+        <v>2200</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A109" s="11">
+        <v>105</v>
+      </c>
+      <c r="B109" s="3">
+        <v>2200</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+    </row>
+    <row r="110" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A110" s="11">
+        <v>106</v>
+      </c>
+      <c r="B110" s="3">
+        <v>2200</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+    </row>
+    <row r="111" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>107</v>
+      </c>
+      <c r="B111" s="3">
+        <v>2200</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+    </row>
+    <row r="112" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A112" s="11">
+        <v>108</v>
+      </c>
+      <c r="B112" s="3">
+        <v>2200</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+    </row>
+    <row r="113" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A113" s="11">
+        <v>109</v>
+      </c>
+      <c r="B113" s="3">
+        <v>2200</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+    </row>
+    <row r="114" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>110</v>
+      </c>
+      <c r="B114" s="3">
+        <v>2200</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+    </row>
+    <row r="115" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A115" s="11">
+        <v>111</v>
+      </c>
+      <c r="B115" s="3">
+        <v>2200</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+    </row>
+    <row r="116" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+      <c r="A116" s="11">
+        <v>112</v>
+      </c>
+      <c r="B116" s="3">
+        <v>2300</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="150" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>113</v>
+      </c>
+      <c r="B117" s="3">
+        <v>2400</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="168.75" x14ac:dyDescent="0.3">
+      <c r="A118" s="11">
+        <v>114</v>
+      </c>
+      <c r="B118" s="3">
+        <v>2500</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292FB67E-ADCF-4AFE-93F4-08082C03CC50}">
+  <dimension ref="A1:M67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>605</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>102</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>102</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="150" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>102</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>102</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>102</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>102</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>102</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>102</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>102</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>102</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>102</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>102</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>633</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>102</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>634</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>102</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>635</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>102</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>636</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>102</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>102</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>638</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="356.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>200</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>639</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="356.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="20">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>200</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="356.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>200</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>641</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="337.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>200</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="337.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>200</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>643</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="356.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>200</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>644</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="393.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="20">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>200</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>645</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="375" x14ac:dyDescent="0.3">
+      <c r="A27" s="20">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>200</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>646</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="375" x14ac:dyDescent="0.3">
+      <c r="A28" s="20">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>200</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L28" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="375" x14ac:dyDescent="0.3">
+      <c r="A29" s="20">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>200</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>648</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="375" x14ac:dyDescent="0.3">
+      <c r="A30" s="20">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>200</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L30" s="24" t="s">
+        <v>649</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="393.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="20">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>200</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L31" s="24" t="s">
+        <v>650</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="20">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>701</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="20">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>701</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L33" s="24" t="s">
+        <v>652</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="20">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>900</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>653</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="168.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="20">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>902</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L35" s="24" t="s">
+        <v>654</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="20">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
+        <v>905</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L36" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="20">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>905</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L37" s="24" t="s">
+        <v>656</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="20">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4">
+        <v>905</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L38" s="24" t="s">
+        <v>657</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="20">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1307</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L39" s="24" t="s">
+        <v>658</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="20">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1308</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L40" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="20">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1309</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L41" s="24" t="s">
+        <v>660</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="20">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2200</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L42" s="24" t="s">
+        <v>661</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="20"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="20"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="20"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="20"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="20"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="20"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="20"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="20"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="20"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="20"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="20"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="20"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="20"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="20"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="20"/>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="20"/>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="20"/>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="20"/>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="20"/>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="20"/>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="20"/>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="20"/>
+    </row>
+    <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="20"/>
+    </row>
+    <row r="66" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="20"/>
+    </row>
+    <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{5B303130-D79C-4F79-B5BA-FD00BF238A25}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{E7431FAE-9E19-4A74-8E66-2901C45145EE}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{64D0CBB8-0BEC-4256-81BC-F2EC5C0AE1E7}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{8D7E0D3A-CE1C-4462-89BC-68EBE060405F}"/>
+    <hyperlink ref="L6" r:id="rId5" xr:uid="{6F7C2E94-9E92-49AB-AD6D-9E8F2C5516C7}"/>
+    <hyperlink ref="L7" r:id="rId6" xr:uid="{49E8C00E-6FFF-4E22-9BB7-2B0E52C8691A}"/>
+    <hyperlink ref="L8" r:id="rId7" xr:uid="{F5C89B0F-DFD7-4D85-810A-B311E0B6570D}"/>
+    <hyperlink ref="L9" r:id="rId8" xr:uid="{758543FC-73EA-482A-9D30-E447DC2A0BCF}"/>
+    <hyperlink ref="L10" r:id="rId9" xr:uid="{A143F677-CD4F-4CB7-94E0-2B5A2AAB67DA}"/>
+    <hyperlink ref="L11" r:id="rId10" xr:uid="{A4B556AD-1B95-4B93-95B2-02BEAB15660E}"/>
+    <hyperlink ref="L12" r:id="rId11" xr:uid="{A9A809C0-A2B4-4883-A20C-27EF2FC613A2}"/>
+    <hyperlink ref="L13" r:id="rId12" xr:uid="{18E8572D-9CEE-4B0D-AD02-654536B2D05E}"/>
+    <hyperlink ref="L14" r:id="rId13" xr:uid="{782C5755-7295-4679-B645-E0BFB3941F2A}"/>
+    <hyperlink ref="L15" r:id="rId14" xr:uid="{C0875887-22E2-441A-8DA3-722EEDA79941}"/>
+    <hyperlink ref="L16" r:id="rId15" xr:uid="{2F4BEE73-B083-45E0-AE77-DA28CD353276}"/>
+    <hyperlink ref="L17" r:id="rId16" xr:uid="{7DD70DB2-906B-4DF6-8CDA-177EA153DCED}"/>
+    <hyperlink ref="L18" r:id="rId17" xr:uid="{E74A346F-3616-45CC-B9AB-442D4A4EF65B}"/>
+    <hyperlink ref="L19" r:id="rId18" xr:uid="{4B1844F4-D5E0-41D7-849F-5AC12D1567E2}"/>
+    <hyperlink ref="L20" r:id="rId19" xr:uid="{CCEBEE33-C5BF-420C-8B6B-9FF6796AF38D}"/>
+    <hyperlink ref="L21" r:id="rId20" xr:uid="{F7D796BE-F9F2-4648-AA2A-65E083C3386B}"/>
+    <hyperlink ref="L22" r:id="rId21" xr:uid="{A41F90B6-CFE4-4689-A309-86217BABDD2E}"/>
+    <hyperlink ref="L23" r:id="rId22" xr:uid="{020FD064-1AF9-4F59-84F8-AC31590CF0D3}"/>
+    <hyperlink ref="L24" r:id="rId23" xr:uid="{8018B4E1-0A0F-4B44-B7C6-D0F32754B281}"/>
+    <hyperlink ref="L25" r:id="rId24" xr:uid="{54FB51D9-3E36-412A-9CB0-C1775774DFA2}"/>
+    <hyperlink ref="L26" r:id="rId25" xr:uid="{D1C48B07-1896-40D6-9AE5-30CCC06CFB1C}"/>
+    <hyperlink ref="L27" r:id="rId26" xr:uid="{E5D6D2FD-94CB-459C-B9B1-DE001122A5EB}"/>
+    <hyperlink ref="L28" r:id="rId27" xr:uid="{74746C90-6F05-4042-8420-8EEF94165E5B}"/>
+    <hyperlink ref="L29" r:id="rId28" xr:uid="{A39AF4BC-71C6-49B5-8A83-15153E313820}"/>
+    <hyperlink ref="L30" r:id="rId29" xr:uid="{CFC95A86-E021-403E-911E-DC09D0469983}"/>
+    <hyperlink ref="L31" r:id="rId30" xr:uid="{45BE0846-E89B-4DC1-8D60-F075DA613E8C}"/>
+    <hyperlink ref="L32" r:id="rId31" xr:uid="{5E57D975-ADE3-4276-B296-4EDB45B22745}"/>
+    <hyperlink ref="L33" r:id="rId32" xr:uid="{33C05738-A312-4A2D-B105-D932B706D8C2}"/>
+    <hyperlink ref="L34" r:id="rId33" xr:uid="{8F201890-9B43-4FAC-BD6D-468B01F40119}"/>
+    <hyperlink ref="L35" r:id="rId34" xr:uid="{9B1A1945-8AAF-4E1A-BF1A-1AF8A5A0A474}"/>
+    <hyperlink ref="L36" r:id="rId35" xr:uid="{6B326B20-7E31-4E48-8276-24D0B0237BC8}"/>
+    <hyperlink ref="L37" r:id="rId36" xr:uid="{5FA4D0F0-0282-47D7-A470-91D95D24A0DA}"/>
+    <hyperlink ref="L38" r:id="rId37" xr:uid="{9E530A55-988E-4849-9110-21EEFB0FCECF}"/>
+    <hyperlink ref="L39" r:id="rId38" xr:uid="{0ADC1559-8459-4541-969B-81361BCEAA46}"/>
+    <hyperlink ref="L40" r:id="rId39" xr:uid="{6575E1E6-E734-42E9-A830-C4AFA459C8FA}"/>
+    <hyperlink ref="L41" r:id="rId40" xr:uid="{A9A3149C-7508-4C9E-AD86-BBEB6BEE5283}"/>
+    <hyperlink ref="L42" r:id="rId41" xr:uid="{F5A9FCC6-CC30-435E-843E-B8FAF0915939}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
+</worksheet>
 </file>